--- a/data/trans_orig/P33_MIN_2023_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_MIN_2023_R-Edad-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,26; 64,95</t>
+          <t>31,38; 63,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49,02; 83,89</t>
+          <t>49,53; 83,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,23; 68,4</t>
+          <t>43,48; 67,15</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,13; 53,5</t>
+          <t>31,97; 52,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,92; 73,58</t>
+          <t>40,0; 76,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,56; 56,74</t>
+          <t>38,78; 57,17</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,63; 39,69</t>
+          <t>27,13; 40,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,39; 36,91</t>
+          <t>25,88; 37,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,16; 37,18</t>
+          <t>28,41; 36,78</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 42,25</t>
+          <t>5,82; 42,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,22; 39,58</t>
+          <t>30,76; 39,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,94; 39,45</t>
+          <t>8,36; 39,25</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30,67; 39,19</t>
+          <t>30,55; 39,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,65; 36,03</t>
+          <t>26,26; 35,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,86; 36,31</t>
+          <t>30,03; 36,41</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,88; 43,69</t>
+          <t>33,24; 43,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,83; 34,29</t>
+          <t>4,06; 34,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,33; 36,73</t>
+          <t>10,87; 36,92</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>35,75; 45,86</t>
+          <t>35,75; 45,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>33,06; 41,53</t>
+          <t>32,8; 41,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,51; 42,19</t>
+          <t>35,42; 41,55</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18,31; 39,03</t>
+          <t>18,8; 39,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,41; 38,31</t>
+          <t>19,02; 38,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,52; 37,81</t>
+          <t>22,82; 37,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_MIN_2023_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_MIN_2023_R-Edad-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de horas durante las cuales se echan la siesta en minutos</t>
+          <t>Nº medio de minutos durante los cuales la población se echa la siesta</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
